--- a/Code/Results/Cases/Case_4_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_103/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>39.69378378338677</v>
+        <v>35.04526029724706</v>
       </c>
       <c r="C2">
-        <v>32.76874834551509</v>
+        <v>27.35262150382964</v>
       </c>
       <c r="D2">
-        <v>12.2230131287876</v>
+        <v>15.53448649421699</v>
       </c>
       <c r="E2">
-        <v>13.22035738414561</v>
+        <v>17.01119759690323</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.068078570274721</v>
+        <v>3.8249302817056</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.851454662222172</v>
+        <v>9.765152013474401</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.54269454282508</v>
+        <v>24.77426605190089</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36.97494413432635</v>
+        <v>34.53409286247759</v>
       </c>
       <c r="C3">
-        <v>30.43169938413735</v>
+        <v>26.87710213571744</v>
       </c>
       <c r="D3">
-        <v>11.66596657932426</v>
+        <v>15.50755928449795</v>
       </c>
       <c r="E3">
-        <v>12.6303101976526</v>
+        <v>16.98736698065072</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.095353679069973</v>
+        <v>3.832624984625362</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.784127971878524</v>
+        <v>9.789423655969607</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.17117238889846</v>
+        <v>24.67782422435335</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.29747617161922</v>
+        <v>34.22957440854315</v>
       </c>
       <c r="C4">
-        <v>28.98771578402183</v>
+        <v>26.59171927233644</v>
       </c>
       <c r="D4">
-        <v>11.33579635891654</v>
+        <v>15.49530139205939</v>
       </c>
       <c r="E4">
-        <v>12.28166805596059</v>
+        <v>16.97741894415568</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.111949241233411</v>
+        <v>3.837571473140339</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.749748610030734</v>
+        <v>9.806154120453375</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.95286522530496</v>
+        <v>24.61962592075575</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.61083636635543</v>
+        <v>34.1079653765856</v>
       </c>
       <c r="C5">
-        <v>28.39600430114058</v>
+        <v>26.47722315146734</v>
       </c>
       <c r="D5">
-        <v>11.20392588569536</v>
+        <v>15.49137795353404</v>
       </c>
       <c r="E5">
-        <v>12.14267973873566</v>
+        <v>16.97453844434369</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.118701761903569</v>
+        <v>3.839643368931549</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.737321333148823</v>
+        <v>9.813430034923137</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.86606079781009</v>
+        <v>24.59616704376069</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.49661446308143</v>
+        <v>34.08792621246343</v>
       </c>
       <c r="C6">
-        <v>28.29753140769468</v>
+        <v>26.45832396236959</v>
       </c>
       <c r="D6">
-        <v>11.18218345474049</v>
+        <v>15.49079108509568</v>
       </c>
       <c r="E6">
-        <v>12.11977908578774</v>
+        <v>16.97413086311037</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.119823103953672</v>
+        <v>3.839990808177397</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.735348992493264</v>
+        <v>9.814665821741928</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.85176935449394</v>
+        <v>24.59228730137962</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.28822930626362</v>
+        <v>34.22792411090392</v>
       </c>
       <c r="C7">
-        <v>28.97975005821981</v>
+        <v>26.59016766430281</v>
       </c>
       <c r="D7">
-        <v>11.33400740261729</v>
+        <v>15.49524414478268</v>
       </c>
       <c r="E7">
-        <v>12.27978149566042</v>
+        <v>16.97737535214791</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.112040316929081</v>
+        <v>3.837599187578047</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.749574804997459</v>
+        <v>9.806250392986177</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.9516861806542</v>
+        <v>24.61930850207267</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>38.75723541505158</v>
+        <v>34.86715450508282</v>
       </c>
       <c r="C8">
-        <v>31.96406497400138</v>
+        <v>27.187381992481</v>
       </c>
       <c r="D8">
-        <v>12.02826396851242</v>
+        <v>15.52431284209825</v>
       </c>
       <c r="E8">
-        <v>13.01383076371332</v>
+        <v>17.00200621405633</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.077533021834427</v>
+        <v>3.827537576315756</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.826685666028959</v>
+        <v>9.773140691349949</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.41235133584518</v>
+        <v>24.74080277601543</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45.89111285589625</v>
+        <v>36.18857139052859</v>
       </c>
       <c r="C9">
-        <v>37.8588669498912</v>
+        <v>28.40437248930845</v>
       </c>
       <c r="D9">
-        <v>13.50503228474773</v>
+        <v>15.61535464813553</v>
       </c>
       <c r="E9">
-        <v>14.58529728479074</v>
+        <v>17.08763480313596</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.007017059425728</v>
+        <v>3.809550980913862</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.042725185157088</v>
+        <v>9.722779462338936</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.41192175154092</v>
+        <v>24.98705142078509</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>51.38172871574784</v>
+        <v>37.19224761578318</v>
       </c>
       <c r="C10">
-        <v>42.45249250539976</v>
+        <v>29.31781586436463</v>
       </c>
       <c r="D10">
-        <v>14.70859967162194</v>
+        <v>15.70309772190123</v>
       </c>
       <c r="E10">
-        <v>15.87374516620888</v>
+        <v>17.17347077674012</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.950183427337909</v>
+        <v>3.797376163658723</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.259670000757164</v>
+        <v>9.694751337195395</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.24193454560431</v>
+        <v>25.1727435409501</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>53.98421072385007</v>
+        <v>37.65413556258149</v>
       </c>
       <c r="C11">
-        <v>44.64018825752043</v>
+        <v>29.73575847935745</v>
       </c>
       <c r="D11">
-        <v>15.30194632307986</v>
+        <v>15.74754666666588</v>
       </c>
       <c r="E11">
-        <v>16.51108503015337</v>
+        <v>17.21751505252582</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.921996663962043</v>
+        <v>3.792058227211552</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.377914784070817</v>
+        <v>9.683968838359784</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.65431022562618</v>
+        <v>25.258229181801</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>54.99595659247771</v>
+        <v>37.82965173877867</v>
       </c>
       <c r="C12">
-        <v>45.49265396844941</v>
+        <v>29.89422380956509</v>
       </c>
       <c r="D12">
-        <v>15.53618753922173</v>
+        <v>15.76502903063703</v>
       </c>
       <c r="E12">
-        <v>16.7630614304409</v>
+        <v>17.23491179566497</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.910812123212222</v>
+        <v>3.790075753623887</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.426472613172414</v>
+        <v>9.680170369256119</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.81745559382341</v>
+        <v>25.29074302750703</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>54.77664420242751</v>
+        <v>37.79182651893419</v>
       </c>
       <c r="C13">
-        <v>45.30777082795209</v>
+        <v>29.86008888023382</v>
       </c>
       <c r="D13">
-        <v>15.48524829708317</v>
+        <v>15.76123499197296</v>
       </c>
       <c r="E13">
-        <v>16.70824796683687</v>
+        <v>17.23113317315969</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.913247500168837</v>
+        <v>3.790501328320558</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.415825328744861</v>
+        <v>9.680975751654417</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.78196481074027</v>
+        <v>25.28373431782254</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>54.06683515796094</v>
+        <v>37.66856404745985</v>
       </c>
       <c r="C14">
-        <v>44.70976240012842</v>
+        <v>29.74879234352633</v>
       </c>
       <c r="D14">
-        <v>15.32100286093722</v>
+        <v>15.748971925633</v>
       </c>
       <c r="E14">
-        <v>16.53157672196368</v>
+        <v>17.21893190630384</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.921088094780875</v>
+        <v>3.791894502583251</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.381826431165916</v>
+        <v>9.683650621945654</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.66757695867308</v>
+        <v>25.2609012842929</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>53.63591063603234</v>
+        <v>37.59313703441692</v>
       </c>
       <c r="C15">
-        <v>44.34698328353788</v>
+        <v>29.68064170312367</v>
       </c>
       <c r="D15">
-        <v>15.22175863796136</v>
+        <v>15.74154510034351</v>
       </c>
       <c r="E15">
-        <v>16.42487337155747</v>
+        <v>17.21155177170867</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.925817342015587</v>
+        <v>3.792751928419375</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.361531143421</v>
+        <v>9.685326174523547</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.59849822175238</v>
+        <v>25.24693381632131</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>51.21458612838008</v>
+        <v>37.16215574826833</v>
       </c>
       <c r="C16">
-        <v>42.31222913745281</v>
+        <v>29.29053816070162</v>
       </c>
       <c r="D16">
-        <v>14.67096355906805</v>
+        <v>15.70028400999751</v>
       </c>
       <c r="E16">
-        <v>15.8333644951813</v>
+        <v>17.17069291634179</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.951965534634708</v>
+        <v>3.797728106367651</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.252407977052085</v>
+        <v>9.695495736613857</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.21583234243399</v>
+        <v>25.16717695674197</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>49.7623170487386</v>
+        <v>36.89901211502369</v>
       </c>
       <c r="C17">
-        <v>41.09467577391989</v>
+        <v>29.05173371772509</v>
       </c>
       <c r="D17">
-        <v>14.34646316413109</v>
+        <v>15.67613219140451</v>
       </c>
       <c r="E17">
-        <v>15.48543419411702</v>
+        <v>17.14690717294</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.967309741961133</v>
+        <v>3.800837019093418</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.191023378591344</v>
+        <v>9.702239588996957</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.99111566695657</v>
+        <v>25.11850588713025</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>48.93597320148101</v>
+        <v>36.74816781877733</v>
       </c>
       <c r="C18">
-        <v>40.40279875622946</v>
+        <v>28.91461533645909</v>
       </c>
       <c r="D18">
-        <v>14.16389320082231</v>
+        <v>15.66266762863669</v>
       </c>
       <c r="E18">
-        <v>15.28986993715535</v>
+        <v>17.13369667417371</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.975929762118601</v>
+        <v>3.80264595661101</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.157479992823775</v>
+        <v>9.706303576517881</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.8649812841687</v>
+        <v>25.0906071789694</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>48.65747234565633</v>
+        <v>36.69718669805045</v>
       </c>
       <c r="C19">
-        <v>40.16976269605723</v>
+        <v>28.86823445186216</v>
       </c>
       <c r="D19">
-        <v>14.10271125072914</v>
+        <v>15.65818211507399</v>
       </c>
       <c r="E19">
-        <v>15.22436433472718</v>
+        <v>17.12930462198536</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.978817065571727</v>
+        <v>3.803262011277987</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.146403377863796</v>
+        <v>9.707711313075237</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.8227642085375</v>
+        <v>25.08117767649545</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>49.91592273312136</v>
+        <v>36.92697265643984</v>
       </c>
       <c r="C20">
-        <v>41.22335807894928</v>
+        <v>29.07713155726454</v>
       </c>
       <c r="D20">
-        <v>14.38056854601192</v>
+        <v>15.67865901676003</v>
       </c>
       <c r="E20">
-        <v>15.52198215824624</v>
+        <v>17.14939051837343</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.965698596856428</v>
+        <v>3.800503922869752</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.197369845000269</v>
+        <v>9.701502524865942</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.01470329693836</v>
+        <v>25.12367713506979</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>54.27449056041053</v>
+        <v>37.70475390389535</v>
       </c>
       <c r="C21">
-        <v>44.88465244196728</v>
+        <v>29.78147856693077</v>
       </c>
       <c r="D21">
-        <v>15.36895420565952</v>
+        <v>15.75255624693321</v>
       </c>
       <c r="E21">
-        <v>16.58314533235528</v>
+        <v>17.22249623219596</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.918800867773676</v>
+        <v>3.791484446798701</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.391699734902858</v>
+        <v>9.682857209469308</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.70096451479021</v>
+        <v>25.26760406649637</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>57.28683442523648</v>
+        <v>38.2165608442696</v>
       </c>
       <c r="C22">
-        <v>47.42723959320696</v>
+        <v>30.24290874406367</v>
       </c>
       <c r="D22">
-        <v>16.0735246485276</v>
+        <v>15.80464275439151</v>
       </c>
       <c r="E22">
-        <v>17.3418508773714</v>
+        <v>17.27446003610014</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.885004894191399</v>
+        <v>3.785772033646161</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.541670262749655</v>
+        <v>9.672331243258265</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.19210473009224</v>
+        <v>25.36249625647379</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>55.65848953457929</v>
+        <v>37.94313139914119</v>
       </c>
       <c r="C23">
-        <v>46.05151117579055</v>
+        <v>29.99658149598653</v>
       </c>
       <c r="D23">
-        <v>15.69061356469556</v>
+        <v>15.77649709841456</v>
       </c>
       <c r="E23">
-        <v>16.92929135035977</v>
+        <v>17.2463434233022</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.903417865834615</v>
+        <v>3.788804301501576</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.459044017338671</v>
+        <v>9.677796716196545</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.92508311399303</v>
+        <v>25.31177597314553</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>49.84645160730887</v>
+        <v>36.91433031190648</v>
       </c>
       <c r="C24">
-        <v>41.16515620732827</v>
+        <v>29.06564864243126</v>
       </c>
       <c r="D24">
-        <v>14.36513727238731</v>
+        <v>15.67751532871493</v>
       </c>
       <c r="E24">
-        <v>15.50544513094777</v>
+        <v>17.14826635186955</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.96642761169436</v>
+        <v>3.800654448419334</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.194495229406322</v>
+        <v>9.70183516966919</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.0040299361676</v>
+        <v>25.12133895528479</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>43.91197486052665</v>
+        <v>35.82470126194112</v>
       </c>
       <c r="C25">
-        <v>36.22101414146803</v>
+        <v>28.07112958950661</v>
       </c>
       <c r="D25">
-        <v>13.08940400218509</v>
+        <v>15.58706706259622</v>
       </c>
       <c r="E25">
-        <v>14.14185027973043</v>
+        <v>17.06045273203367</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.026671978500029</v>
+        <v>3.814232504093363</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.975764933730591</v>
+        <v>9.734834553130227</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.12814458489515</v>
+        <v>24.91958776192925</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_103/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35.04526029724706</v>
+        <v>39.69378378338681</v>
       </c>
       <c r="C2">
-        <v>27.35262150382964</v>
+        <v>32.76874834551505</v>
       </c>
       <c r="D2">
-        <v>15.53448649421699</v>
+        <v>12.2230131287876</v>
       </c>
       <c r="E2">
-        <v>17.01119759690323</v>
+        <v>13.22035738414558</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.8249302817056</v>
+        <v>2.068078570274855</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.765152013474401</v>
+        <v>5.851454662222158</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24.77426605190089</v>
+        <v>20.54269454282511</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34.53409286247759</v>
+        <v>36.97494413432633</v>
       </c>
       <c r="C3">
-        <v>26.87710213571744</v>
+        <v>30.43169938413732</v>
       </c>
       <c r="D3">
-        <v>15.50755928449795</v>
+        <v>11.6659665793243</v>
       </c>
       <c r="E3">
-        <v>16.98736698065072</v>
+        <v>12.63031019765261</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.832624984625362</v>
+        <v>2.095353679070231</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.789423655969607</v>
+        <v>5.784127971878491</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.67782422435335</v>
+        <v>20.1711723888984</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>34.22957440854315</v>
+        <v>35.29747617161915</v>
       </c>
       <c r="C4">
-        <v>26.59171927233644</v>
+        <v>28.98771578402183</v>
       </c>
       <c r="D4">
-        <v>15.49530139205939</v>
+        <v>11.33579635891668</v>
       </c>
       <c r="E4">
-        <v>16.97741894415568</v>
+        <v>12.28166805596065</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.837571473140339</v>
+        <v>2.111949241233422</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.806154120453375</v>
+        <v>5.749748610030691</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>24.61962592075575</v>
+        <v>19.95286522530497</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34.1079653765856</v>
+        <v>34.6108363663554</v>
       </c>
       <c r="C5">
-        <v>26.47722315146734</v>
+        <v>28.39600430114042</v>
       </c>
       <c r="D5">
-        <v>15.49137795353404</v>
+        <v>11.20392588569544</v>
       </c>
       <c r="E5">
-        <v>16.97453844434369</v>
+        <v>12.14267973873566</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.839643368931549</v>
+        <v>2.118701761903577</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.813430034923137</v>
+        <v>5.737321333148839</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>24.59616704376069</v>
+        <v>19.86606079781011</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.08792621246343</v>
+        <v>34.49661446308133</v>
       </c>
       <c r="C6">
-        <v>26.45832396236959</v>
+        <v>28.29753140769465</v>
       </c>
       <c r="D6">
-        <v>15.49079108509568</v>
+        <v>11.18218345474041</v>
       </c>
       <c r="E6">
-        <v>16.97413086311037</v>
+        <v>12.1197790857877</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.839990808177397</v>
+        <v>2.119823103953139</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.814665821741928</v>
+        <v>5.735348992493269</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>24.59228730137962</v>
+        <v>19.85176935449389</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.22792411090392</v>
+        <v>35.2882293062637</v>
       </c>
       <c r="C7">
-        <v>26.59016766430281</v>
+        <v>28.9797500582199</v>
       </c>
       <c r="D7">
-        <v>15.49524414478268</v>
+        <v>11.3340074026173</v>
       </c>
       <c r="E7">
-        <v>16.97737535214791</v>
+        <v>12.27978149566041</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.837599187578047</v>
+        <v>2.112040316929208</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.806250392986177</v>
+        <v>5.749574804997515</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>24.61930850207267</v>
+        <v>19.95168618065422</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34.86715450508282</v>
+        <v>38.75723541505147</v>
       </c>
       <c r="C8">
-        <v>27.187381992481</v>
+        <v>31.96406497400127</v>
       </c>
       <c r="D8">
-        <v>15.52431284209825</v>
+        <v>12.02826396851242</v>
       </c>
       <c r="E8">
-        <v>17.00200621405633</v>
+        <v>13.01383076371328</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.827537576315756</v>
+        <v>2.077533021834838</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.773140691349949</v>
+        <v>5.826685666028933</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>24.74080277601543</v>
+        <v>20.41235133584521</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.18857139052859</v>
+        <v>45.89111285589649</v>
       </c>
       <c r="C9">
-        <v>28.40437248930845</v>
+        <v>37.85886694989149</v>
       </c>
       <c r="D9">
-        <v>15.61535464813553</v>
+        <v>13.5050322847477</v>
       </c>
       <c r="E9">
-        <v>17.08763480313596</v>
+        <v>14.58529728479075</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.809550980913862</v>
+        <v>2.00701705942558</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.722779462338936</v>
+        <v>6.042725185157078</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>24.98705142078509</v>
+        <v>21.41192175154087</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.19224761578318</v>
+        <v>51.38172871574749</v>
       </c>
       <c r="C10">
-        <v>29.31781586436463</v>
+        <v>42.45249250539936</v>
       </c>
       <c r="D10">
-        <v>15.70309772190123</v>
+        <v>14.70859967162197</v>
       </c>
       <c r="E10">
-        <v>17.17347077674012</v>
+        <v>15.87374516620884</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.797376163658723</v>
+        <v>1.950183427337771</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.694751337195395</v>
+        <v>6.259670000757161</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.1727435409501</v>
+        <v>22.24193454560427</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.65413556258149</v>
+        <v>53.98421072385068</v>
       </c>
       <c r="C11">
-        <v>29.73575847935745</v>
+        <v>44.64018825752087</v>
       </c>
       <c r="D11">
-        <v>15.74754666666588</v>
+        <v>15.30194632307991</v>
       </c>
       <c r="E11">
-        <v>17.21751505252582</v>
+        <v>16.51108503015343</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.792058227211552</v>
+        <v>1.921996663961894</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.683968838359784</v>
+        <v>6.377914784070817</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.258229181801</v>
+        <v>22.65431022562615</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.82965173877867</v>
+        <v>54.99595659247739</v>
       </c>
       <c r="C12">
-        <v>29.89422380956509</v>
+        <v>45.49265396844904</v>
       </c>
       <c r="D12">
-        <v>15.76502903063703</v>
+        <v>15.53618753922174</v>
       </c>
       <c r="E12">
-        <v>17.23491179566497</v>
+        <v>16.76306143044089</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.790075753623887</v>
+        <v>1.9108121232122</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.680170369256119</v>
+        <v>6.426472613172406</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.29074302750703</v>
+        <v>22.81745559382328</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.79182651893419</v>
+        <v>54.77664420242725</v>
       </c>
       <c r="C13">
-        <v>29.86008888023382</v>
+        <v>45.30777082795177</v>
       </c>
       <c r="D13">
-        <v>15.76123499197296</v>
+        <v>15.48524829708306</v>
       </c>
       <c r="E13">
-        <v>17.23113317315969</v>
+        <v>16.70824796683679</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.790501328320558</v>
+        <v>1.913247500168932</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.680975751654417</v>
+        <v>6.415825328744861</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.28373431782254</v>
+        <v>22.78196481074024</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.66856404745985</v>
+        <v>54.06683515796099</v>
       </c>
       <c r="C14">
-        <v>29.74879234352633</v>
+        <v>44.7097624001285</v>
       </c>
       <c r="D14">
-        <v>15.748971925633</v>
+        <v>15.32100286093724</v>
       </c>
       <c r="E14">
-        <v>17.21893190630384</v>
+        <v>16.53157672196372</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.791894502583251</v>
+        <v>1.921088094780747</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.683650621945654</v>
+        <v>6.381826431165926</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.2609012842929</v>
+        <v>22.66757695867307</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.59313703441692</v>
+        <v>53.63591063603218</v>
       </c>
       <c r="C15">
-        <v>29.68064170312367</v>
+        <v>44.34698328353783</v>
       </c>
       <c r="D15">
-        <v>15.74154510034351</v>
+        <v>15.22175863796124</v>
       </c>
       <c r="E15">
-        <v>17.21155177170867</v>
+        <v>16.42487337155741</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.792751928419375</v>
+        <v>1.925817342015713</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.685326174523547</v>
+        <v>6.361531143421025</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.24693381632131</v>
+        <v>22.59849822175233</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.16215574826833</v>
+        <v>51.21458612837968</v>
       </c>
       <c r="C16">
-        <v>29.29053816070162</v>
+        <v>42.31222913745237</v>
       </c>
       <c r="D16">
-        <v>15.70028400999751</v>
+        <v>14.67096355906803</v>
       </c>
       <c r="E16">
-        <v>17.17069291634179</v>
+        <v>15.83336449518119</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.797728106367651</v>
+        <v>1.951965534634958</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.695495736613857</v>
+        <v>6.252407977052036</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.16717695674197</v>
+        <v>22.21583234243399</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.89901211502369</v>
+        <v>49.76231704873848</v>
       </c>
       <c r="C17">
-        <v>29.05173371772509</v>
+        <v>41.09467577391971</v>
       </c>
       <c r="D17">
-        <v>15.67613219140451</v>
+        <v>14.34646316413103</v>
       </c>
       <c r="E17">
-        <v>17.14690717294</v>
+        <v>15.48543419411697</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.800837019093418</v>
+        <v>1.96730974196099</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.702239588996957</v>
+        <v>6.191023378591357</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.11850588713025</v>
+        <v>21.99111566695652</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.74816781877733</v>
+        <v>48.9359732014816</v>
       </c>
       <c r="C18">
-        <v>28.91461533645909</v>
+        <v>40.40279875622995</v>
       </c>
       <c r="D18">
-        <v>15.66266762863669</v>
+        <v>14.16389320082238</v>
       </c>
       <c r="E18">
-        <v>17.13369667417371</v>
+        <v>15.28986993715544</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.80264595661101</v>
+        <v>1.975929762118359</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.706303576517881</v>
+        <v>6.157479992823792</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.0906071789694</v>
+        <v>21.86498128416886</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>36.69718669805045</v>
+        <v>48.65747234565643</v>
       </c>
       <c r="C19">
-        <v>28.86823445186216</v>
+        <v>40.1697626960573</v>
       </c>
       <c r="D19">
-        <v>15.65818211507399</v>
+        <v>14.10271125072907</v>
       </c>
       <c r="E19">
-        <v>17.12930462198536</v>
+        <v>15.22436433472716</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.803262011277987</v>
+        <v>1.978817065571475</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.707711313075237</v>
+        <v>6.146403377863811</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.08117767649545</v>
+        <v>21.82276420853749</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.92697265643984</v>
+        <v>49.91592273312109</v>
       </c>
       <c r="C20">
-        <v>29.07713155726454</v>
+        <v>41.22335807894908</v>
       </c>
       <c r="D20">
-        <v>15.67865901676003</v>
+        <v>14.38056854601188</v>
       </c>
       <c r="E20">
-        <v>17.14939051837343</v>
+        <v>15.52198215824623</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.800503922869752</v>
+        <v>1.965698596856551</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.701502524865942</v>
+        <v>6.197369845000269</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.12367713506979</v>
+        <v>22.0147032969383</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.70475390389535</v>
+        <v>54.27449056041095</v>
       </c>
       <c r="C21">
-        <v>29.78147856693077</v>
+        <v>44.88465244196765</v>
       </c>
       <c r="D21">
-        <v>15.75255624693321</v>
+        <v>15.36895420565967</v>
       </c>
       <c r="E21">
-        <v>17.22249623219596</v>
+        <v>16.58314533235542</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.791484446798701</v>
+        <v>1.918800867773576</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.682857209469308</v>
+        <v>6.391699734902893</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.26760406649637</v>
+        <v>22.70096451479027</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.2165608442696</v>
+        <v>57.28683442523618</v>
       </c>
       <c r="C22">
-        <v>30.24290874406367</v>
+        <v>47.42723959320664</v>
       </c>
       <c r="D22">
-        <v>15.80464275439151</v>
+        <v>16.07352464852758</v>
       </c>
       <c r="E22">
-        <v>17.27446003610014</v>
+        <v>17.34185087737135</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.785772033646161</v>
+        <v>1.885004894191439</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.672331243258265</v>
+        <v>6.541670262749641</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.36249625647379</v>
+        <v>23.19210473009221</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.94313139914119</v>
+        <v>55.65848953457927</v>
       </c>
       <c r="C23">
-        <v>29.99658149598653</v>
+        <v>46.05151117579051</v>
       </c>
       <c r="D23">
-        <v>15.77649709841456</v>
+        <v>15.69061356469559</v>
       </c>
       <c r="E23">
-        <v>17.2463434233022</v>
+        <v>16.92929135035978</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.788804301501576</v>
+        <v>1.903417865834483</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.677796716196545</v>
+        <v>6.45904401733866</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.31177597314553</v>
+        <v>22.92508311399298</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.91433031190648</v>
+        <v>49.84645160730872</v>
       </c>
       <c r="C24">
-        <v>29.06564864243126</v>
+        <v>41.16515620732821</v>
       </c>
       <c r="D24">
-        <v>15.67751532871493</v>
+        <v>14.36513727238736</v>
       </c>
       <c r="E24">
-        <v>17.14826635186955</v>
+        <v>15.5054451309478</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.800654448419334</v>
+        <v>1.966427611694617</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.70183516966919</v>
+        <v>6.194495229406343</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.12133895528479</v>
+        <v>22.00402993616765</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.82470126194112</v>
+        <v>43.91197486052687</v>
       </c>
       <c r="C25">
-        <v>28.07112958950661</v>
+        <v>36.22101414146814</v>
       </c>
       <c r="D25">
-        <v>15.58706706259622</v>
+        <v>13.08940400218513</v>
       </c>
       <c r="E25">
-        <v>17.06045273203367</v>
+        <v>14.14185027973041</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.814232504093363</v>
+        <v>2.026671978499931</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.734834553130227</v>
+        <v>5.975764933730543</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>24.91958776192925</v>
+        <v>21.12814458489517</v>
       </c>
       <c r="O25">
         <v>0</v>
